--- a/8-Elements and Status Menu Core 元素和状态菜单核心.xlsx
+++ b/8-Elements and Status Menu Core 元素和状态菜单核心.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="视频翻译" sheetId="4" r:id="rId1"/>
@@ -6042,8 +6042,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
